--- a/classfiers/chain/welm/smote/chain_welm_lin_smote_results.xlsx
+++ b/classfiers/chain/welm/smote/chain_welm_lin_smote_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9651416122004357</v>
+        <v>0.89</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.8238341968911918</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9666666666666666</v>
+        <v>0.8784530386740332</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9828345739024761</v>
+        <v>0.9804510525393607</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9629629629629629</v>
+        <v>0.895</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.8365384615384616</v>
       </c>
       <c r="D3" t="n">
-        <v>0.962962962962963</v>
+        <v>0.8923076923076924</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9817673675805163</v>
+        <v>0.9796674679487181</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9803921568627451</v>
+        <v>0.8575</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9815950920245399</v>
+        <v>0.8421052631578948</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9953576864535768</v>
+        <v>0.9656390977443609</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9694989106753813</v>
+        <v>0.8897243107769424</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.8186528497409327</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9704641350210971</v>
+        <v>0.8777777777777778</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9840516423011202</v>
+        <v>0.9777403289903919</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9694323144104804</v>
+        <v>0.8822055137844611</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.8232558139534883</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9696969696969697</v>
+        <v>0.8827930174563592</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9866262210012209</v>
+        <v>0.9760111223458038</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9694855914224011</v>
+        <v>0.8828859649122807</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0.8204562644248149</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9702771652744474</v>
+        <v>0.8746873578747515</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9861274982477821</v>
+        <v>0.975901813913727</v>
       </c>
     </row>
   </sheetData>
